--- a/assets/data/Hackfest 2025_College List.xlsx
+++ b/assets/data/Hackfest 2025_College List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keerthi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAP\New folder\hackfest-website-main\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9EAF01-F48D-496A-8A54-FA89AA26A8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CA446-0FF1-442B-9343-8E0E5AD136CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="259">
   <si>
     <t>Sl No</t>
   </si>
@@ -806,7 +806,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -824,11 +824,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -950,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -966,8 +961,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -977,34 +972,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197:D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1242,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="18" t="s">
         <v>258</v>
       </c>
     </row>
@@ -1262,10 +1253,10 @@
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1276,9 +1267,15 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1287,9 +1284,15 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1298,9 +1301,15 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1309,9 +1318,15 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1320,9 +1335,15 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1331,9 +1352,15 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1342,9 +1369,15 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1353,9 +1386,15 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1364,9 +1403,15 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1375,9 +1420,15 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1386,9 +1437,15 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1397,9 +1454,15 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1408,9 +1471,15 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1419,9 +1488,15 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1430,9 +1505,15 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1441,9 +1522,15 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1452,9 +1539,15 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1463,9 +1556,15 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1573,9 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="20" t="s">
         <v>27</v>
       </c>
@@ -1489,9 +1590,15 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
@@ -1500,9 +1607,15 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1511,9 +1624,15 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1522,9 +1641,15 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
@@ -1533,9 +1658,15 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>33</v>
       </c>
@@ -1544,9 +1675,15 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1555,9 +1692,15 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
@@ -1566,9 +1709,15 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>36</v>
       </c>
@@ -1577,9 +1726,15 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1588,9 +1743,15 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="5" t="s">
         <v>38</v>
       </c>
@@ -1599,40 +1760,60 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="C35" s="20" t="s">
         <v>42</v>
       </c>
@@ -1642,133 +1823,202 @@
       <c r="E35" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="B39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="B40" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="B42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="B44" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E44" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E45" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="C47" s="3" t="s">
         <v>55</v>
       </c>
@@ -1779,7 +2029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1800,9 +2050,15 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>61</v>
       </c>
@@ -1811,9 +2067,15 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="B50" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E50" s="5" t="s">
         <v>62</v>
       </c>
@@ -1822,9 +2084,15 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E51" s="5" t="s">
         <v>63</v>
       </c>
@@ -1833,9 +2101,15 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="B52" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E52" s="5" t="s">
         <v>64</v>
       </c>
@@ -1844,9 +2118,15 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E53" s="5" t="s">
         <v>65</v>
       </c>
@@ -1855,9 +2135,15 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>66</v>
       </c>
@@ -1866,9 +2152,15 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E55" s="5" t="s">
         <v>67</v>
       </c>
@@ -1877,7 +2169,9 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="20" t="s">
         <v>68</v>
       </c>
@@ -1892,9 +2186,15 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="B57" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E57" s="5" t="s">
         <v>70</v>
       </c>
@@ -1903,9 +2203,15 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="B58" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E58" s="5" t="s">
         <v>71</v>
       </c>
@@ -1914,9 +2220,15 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E59" s="5" t="s">
         <v>72</v>
       </c>
@@ -1925,9 +2237,15 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E60" s="5" t="s">
         <v>73</v>
       </c>
@@ -1936,9 +2254,15 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="B61" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E61" s="5" t="s">
         <v>74</v>
       </c>
@@ -1947,9 +2271,15 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="E62" s="5" t="s">
         <v>75</v>
       </c>
@@ -1958,7 +2288,9 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C63" s="3" t="s">
         <v>76</v>
       </c>
@@ -1973,7 +2305,9 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C64" s="20" t="s">
         <v>78</v>
       </c>
@@ -1988,9 +2322,15 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E65" s="5" t="s">
         <v>81</v>
       </c>
@@ -1999,9 +2339,15 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E66" s="5" t="s">
         <v>82</v>
       </c>
@@ -2010,9 +2356,15 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="B67" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E67" s="5" t="s">
         <v>83</v>
       </c>
@@ -2021,9 +2373,15 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E68" s="5" t="s">
         <v>84</v>
       </c>
@@ -2032,9 +2390,15 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="B69" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E69" s="5" t="s">
         <v>85</v>
       </c>
@@ -2043,9 +2407,15 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="B70" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E70" s="5" t="s">
         <v>86</v>
       </c>
@@ -2054,9 +2424,15 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="B71" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>87</v>
       </c>
@@ -2065,9 +2441,15 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="B72" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E72" s="5" t="s">
         <v>88</v>
       </c>
@@ -2076,9 +2458,15 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="B73" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E73" s="5" t="s">
         <v>89</v>
       </c>
@@ -2087,9 +2475,15 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>90</v>
       </c>
@@ -2115,9 +2509,15 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E76" s="5" t="s">
         <v>95</v>
       </c>
@@ -2126,9 +2526,15 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="B77" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E77" s="5" t="s">
         <v>96</v>
       </c>
@@ -2137,9 +2543,15 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E78" s="5" t="s">
         <v>97</v>
       </c>
@@ -2148,9 +2560,15 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E79" s="5" t="s">
         <v>98</v>
       </c>
@@ -2159,9 +2577,15 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="B80" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E80" s="5" t="s">
         <v>99</v>
       </c>
@@ -2170,9 +2594,15 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
+      <c r="B81" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E81" s="5" t="s">
         <v>100</v>
       </c>
@@ -2181,9 +2611,15 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
+      <c r="B82" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E82" s="5" t="s">
         <v>101</v>
       </c>
@@ -2192,9 +2628,15 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E83" s="5" t="s">
         <v>102</v>
       </c>
@@ -2203,9 +2645,15 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
+      <c r="B84" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E84" s="5" t="s">
         <v>103</v>
       </c>
@@ -2214,9 +2662,15 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
+      <c r="B85" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E85" s="5" t="s">
         <v>104</v>
       </c>
@@ -2225,9 +2679,15 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
+      <c r="B86" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E86" s="5" t="s">
         <v>105</v>
       </c>
@@ -2236,9 +2696,15 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
+      <c r="B87" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E87" s="5" t="s">
         <v>106</v>
       </c>
@@ -2247,9 +2713,15 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
+      <c r="B88" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>107</v>
       </c>
@@ -2258,9 +2730,15 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="B89" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E89" s="5" t="s">
         <v>108</v>
       </c>
@@ -2269,7 +2747,9 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C90" s="20" t="s">
         <v>109</v>
       </c>
@@ -2284,9 +2764,15 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
+      <c r="B91" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E91" s="5" t="s">
         <v>111</v>
       </c>
@@ -2295,9 +2781,15 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
+      <c r="B92" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E92" s="5" t="s">
         <v>112</v>
       </c>
@@ -2306,9 +2798,15 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="B93" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E93" s="8" t="s">
         <v>113</v>
       </c>
@@ -2323,7 +2821,7 @@
       <c r="C94" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -2334,9 +2832,15 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
+      <c r="B95" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E95" s="5" t="s">
         <v>118</v>
       </c>
@@ -2345,9 +2849,15 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
+      <c r="B96" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E96" s="5" t="s">
         <v>119</v>
       </c>
@@ -2356,9 +2866,15 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
+      <c r="B97" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E97" s="5" t="s">
         <v>120</v>
       </c>
@@ -2367,9 +2883,15 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
+      <c r="B98" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E98" s="5" t="s">
         <v>121</v>
       </c>
@@ -2378,9 +2900,15 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
+      <c r="B99" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E99" s="5" t="s">
         <v>122</v>
       </c>
@@ -2389,9 +2917,15 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
+      <c r="B100" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E100" s="5" t="s">
         <v>123</v>
       </c>
@@ -2400,9 +2934,15 @@
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
+      <c r="B101" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E101" s="5" t="s">
         <v>124</v>
       </c>
@@ -2411,9 +2951,15 @@
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
+      <c r="B102" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E102" s="5" t="s">
         <v>125</v>
       </c>
@@ -2422,9 +2968,15 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
+      <c r="B103" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E103" s="5" t="s">
         <v>126</v>
       </c>
@@ -2433,9 +2985,15 @@
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
+      <c r="B104" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E104" s="5" t="s">
         <v>127</v>
       </c>
@@ -2461,9 +3019,15 @@
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
+      <c r="B106" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E106" s="9" t="s">
         <v>132</v>
       </c>
@@ -2472,9 +3036,15 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
+      <c r="B107" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E107" s="9" t="s">
         <v>133</v>
       </c>
@@ -2483,9 +3053,15 @@
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
+      <c r="B108" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E108" s="9" t="s">
         <v>134</v>
       </c>
@@ -2494,9 +3070,15 @@
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
+      <c r="B109" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E109" s="9" t="s">
         <v>135</v>
       </c>
@@ -2505,9 +3087,15 @@
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
+      <c r="B110" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E110" s="9" t="s">
         <v>136</v>
       </c>
@@ -2516,9 +3104,15 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="B111" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E111" s="9" t="s">
         <v>137</v>
       </c>
@@ -2527,9 +3121,15 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
+      <c r="B112" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E112" s="9" t="s">
         <v>138</v>
       </c>
@@ -2538,9 +3138,15 @@
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
+      <c r="B113" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E113" s="9" t="s">
         <v>139</v>
       </c>
@@ -2549,9 +3155,15 @@
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
+      <c r="B114" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E114" s="9" t="s">
         <v>140</v>
       </c>
@@ -2560,9 +3172,15 @@
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
+      <c r="B115" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E115" s="9" t="s">
         <v>141</v>
       </c>
@@ -2571,9 +3189,15 @@
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="21"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="B116" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E116" s="9" t="s">
         <v>142</v>
       </c>
@@ -2582,7 +3206,9 @@
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C117" s="20" t="s">
         <v>143</v>
       </c>
@@ -2597,9 +3223,15 @@
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
+      <c r="B118" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E118" s="9" t="s">
         <v>145</v>
       </c>
@@ -2608,9 +3240,15 @@
       <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
+      <c r="B119" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E119" s="9" t="s">
         <v>146</v>
       </c>
@@ -2619,9 +3257,15 @@
       <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
+      <c r="B120" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E120" s="9" t="s">
         <v>147</v>
       </c>
@@ -2630,9 +3274,15 @@
       <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
+      <c r="B121" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E121" s="9" t="s">
         <v>148</v>
       </c>
@@ -2641,9 +3291,15 @@
       <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
+      <c r="B122" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E122" s="9" t="s">
         <v>149</v>
       </c>
@@ -2652,9 +3308,15 @@
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
+      <c r="B123" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E123" s="9" t="s">
         <v>150</v>
       </c>
@@ -2663,9 +3325,15 @@
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
+      <c r="B124" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E124" s="9" t="s">
         <v>151</v>
       </c>
@@ -2674,9 +3342,15 @@
       <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
+      <c r="B125" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E125" s="9" t="s">
         <v>152</v>
       </c>
@@ -2685,9 +3359,15 @@
       <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="21"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="B126" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="E126" s="9" t="s">
         <v>153</v>
       </c>
@@ -2696,7 +3376,9 @@
       <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="21"/>
+      <c r="B127" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C127" s="20" t="s">
         <v>154</v>
       </c>
@@ -2711,9 +3393,15 @@
       <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
+      <c r="B128" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E128" s="9" t="s">
         <v>157</v>
       </c>
@@ -2722,9 +3410,15 @@
       <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
+      <c r="B129" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E129" s="9" t="s">
         <v>158</v>
       </c>
@@ -2733,9 +3427,15 @@
       <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
+      <c r="B130" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E130" s="9" t="s">
         <v>159</v>
       </c>
@@ -2744,9 +3444,15 @@
       <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
+      <c r="B131" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E131" s="9" t="s">
         <v>160</v>
       </c>
@@ -2755,9 +3461,15 @@
       <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
+      <c r="B132" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E132" s="9" t="s">
         <v>161</v>
       </c>
@@ -2766,9 +3478,15 @@
       <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
+      <c r="B133" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E133" s="9" t="s">
         <v>162</v>
       </c>
@@ -2777,9 +3495,15 @@
       <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
+      <c r="B134" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E134" s="9" t="s">
         <v>163</v>
       </c>
@@ -2788,9 +3512,15 @@
       <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
+      <c r="B135" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E135" s="9" t="s">
         <v>164</v>
       </c>
@@ -2799,9 +3529,15 @@
       <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
+      <c r="B136" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E136" s="9" t="s">
         <v>165</v>
       </c>
@@ -2810,9 +3546,15 @@
       <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
+      <c r="B137" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E137" s="9" t="s">
         <v>166</v>
       </c>
@@ -2821,9 +3563,15 @@
       <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
+      <c r="B138" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E138" s="9" t="s">
         <v>167</v>
       </c>
@@ -2832,9 +3580,15 @@
       <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
+      <c r="B139" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E139" s="9" t="s">
         <v>168</v>
       </c>
@@ -2843,9 +3597,15 @@
       <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="21"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="B140" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E140" s="9" t="s">
         <v>158</v>
       </c>
@@ -2854,7 +3614,9 @@
       <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="21"/>
+      <c r="B141" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C141" s="20" t="s">
         <v>169</v>
       </c>
@@ -2869,9 +3631,15 @@
       <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
+      <c r="B142" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E142" s="9" t="s">
         <v>171</v>
       </c>
@@ -2880,9 +3648,15 @@
       <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
+      <c r="B143" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E143" s="9" t="s">
         <v>172</v>
       </c>
@@ -2891,9 +3665,15 @@
       <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
+      <c r="B144" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E144" s="9" t="s">
         <v>173</v>
       </c>
@@ -2902,9 +3682,15 @@
       <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
+      <c r="B145" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E145" s="9" t="s">
         <v>65</v>
       </c>
@@ -2913,9 +3699,15 @@
       <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
+      <c r="B146" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E146" s="9" t="s">
         <v>174</v>
       </c>
@@ -2924,9 +3716,15 @@
       <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
+      <c r="B147" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E147" s="5" t="s">
         <v>175</v>
       </c>
@@ -2935,9 +3733,15 @@
       <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
+      <c r="B148" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E148" s="10" t="s">
         <v>176</v>
       </c>
@@ -2946,9 +3750,15 @@
       <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
+      <c r="B149" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E149" s="10" t="s">
         <v>177</v>
       </c>
@@ -2957,9 +3767,15 @@
       <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
+      <c r="B150" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E150" s="10" t="s">
         <v>178</v>
       </c>
@@ -2968,9 +3784,15 @@
       <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
+      <c r="B151" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E151" s="10" t="s">
         <v>179</v>
       </c>
@@ -2979,9 +3801,15 @@
       <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
+      <c r="B152" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="E152" s="9" t="s">
         <v>180</v>
       </c>
@@ -2990,7 +3818,9 @@
       <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" s="21"/>
+      <c r="B153" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C153" s="20" t="s">
         <v>181</v>
       </c>
@@ -3005,9 +3835,15 @@
       <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
+      <c r="B154" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E154" s="9" t="s">
         <v>184</v>
       </c>
@@ -3016,9 +3852,15 @@
       <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
+      <c r="B155" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E155" s="9" t="s">
         <v>185</v>
       </c>
@@ -3027,9 +3869,15 @@
       <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
+      <c r="B156" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E156" s="9" t="s">
         <v>186</v>
       </c>
@@ -3038,9 +3886,15 @@
       <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
+      <c r="B157" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E157" s="9" t="s">
         <v>187</v>
       </c>
@@ -3049,9 +3903,15 @@
       <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
+      <c r="B158" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E158" s="9" t="s">
         <v>188</v>
       </c>
@@ -3060,9 +3920,15 @@
       <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
+      <c r="B159" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E159" s="9" t="s">
         <v>189</v>
       </c>
@@ -3071,9 +3937,15 @@
       <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
+      <c r="B160" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E160" s="9" t="s">
         <v>190</v>
       </c>
@@ -3082,9 +3954,15 @@
       <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
+      <c r="B161" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="E161" s="9" t="s">
         <v>191</v>
       </c>
@@ -3110,9 +3988,15 @@
       <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
+      <c r="B163" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E163" s="5" t="s">
         <v>196</v>
       </c>
@@ -3121,9 +4005,15 @@
       <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
+      <c r="B164" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E164" s="5" t="s">
         <v>197</v>
       </c>
@@ -3132,9 +4022,15 @@
       <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
+      <c r="B165" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E165" s="5" t="s">
         <v>198</v>
       </c>
@@ -3143,9 +4039,15 @@
       <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
+      <c r="B166" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E166" s="5" t="s">
         <v>199</v>
       </c>
@@ -3154,9 +4056,15 @@
       <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
+      <c r="B167" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E167" s="5" t="s">
         <v>200</v>
       </c>
@@ -3165,9 +4073,15 @@
       <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
+      <c r="B168" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E168" s="5" t="s">
         <v>201</v>
       </c>
@@ -3176,9 +4090,15 @@
       <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
+      <c r="B169" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E169" s="5" t="s">
         <v>202</v>
       </c>
@@ -3187,9 +4107,15 @@
       <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
+      <c r="B170" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E170" s="5" t="s">
         <v>203</v>
       </c>
@@ -3198,9 +4124,15 @@
       <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
+      <c r="B171" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E171" s="5" t="s">
         <v>204</v>
       </c>
@@ -3209,9 +4141,15 @@
       <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
+      <c r="B172" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E172" s="5" t="s">
         <v>205</v>
       </c>
@@ -3220,9 +4158,15 @@
       <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
+      <c r="B173" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E173" s="5" t="s">
         <v>206</v>
       </c>
@@ -3231,9 +4175,15 @@
       <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
+      <c r="B174" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E174" s="5" t="s">
         <v>207</v>
       </c>
@@ -3242,9 +4192,15 @@
       <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="21"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
+      <c r="B175" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E175" s="5" t="s">
         <v>208</v>
       </c>
@@ -3253,7 +4209,9 @@
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="21"/>
+      <c r="B176" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="C176" s="20" t="s">
         <v>209</v>
       </c>
@@ -3268,9 +4226,15 @@
       <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
+      <c r="B177" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E177" s="5" t="s">
         <v>211</v>
       </c>
@@ -3279,9 +4243,15 @@
       <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="21"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="21"/>
+      <c r="B178" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E178" s="5" t="s">
         <v>212</v>
       </c>
@@ -3290,9 +4260,15 @@
       <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
+      <c r="B179" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D179" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E179" s="5" t="s">
         <v>213</v>
       </c>
@@ -3301,9 +4277,15 @@
       <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="21"/>
-      <c r="C180" s="21"/>
-      <c r="D180" s="21"/>
+      <c r="B180" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E180" s="5" t="s">
         <v>199</v>
       </c>
@@ -3312,9 +4294,15 @@
       <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
+      <c r="B181" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E181" s="5" t="s">
         <v>214</v>
       </c>
@@ -3323,9 +4311,15 @@
       <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
+      <c r="B182" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E182" s="5" t="s">
         <v>215</v>
       </c>
@@ -3334,9 +4328,15 @@
       <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="21"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="21"/>
+      <c r="B183" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D183" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E183" s="5" t="s">
         <v>216</v>
       </c>
@@ -3345,9 +4345,15 @@
       <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
+      <c r="B184" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E184" s="5" t="s">
         <v>217</v>
       </c>
@@ -3356,9 +4362,15 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
+      <c r="B185" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="E185" s="12" t="s">
         <v>218</v>
       </c>
@@ -3384,9 +4396,15 @@
       <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
+      <c r="B187" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E187" s="13" t="s">
         <v>221</v>
       </c>
@@ -3395,9 +4413,15 @@
       <c r="A188" s="11">
         <v>187</v>
       </c>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
+      <c r="B188" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E188" s="13" t="s">
         <v>222</v>
       </c>
@@ -3406,9 +4430,15 @@
       <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
+      <c r="B189" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E189" s="13" t="s">
         <v>223</v>
       </c>
@@ -3417,9 +4447,15 @@
       <c r="A190" s="11">
         <v>189</v>
       </c>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
+      <c r="B190" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E190" s="13" t="s">
         <v>224</v>
       </c>
@@ -3428,9 +4464,15 @@
       <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="23"/>
+      <c r="B191" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E191" s="13" t="s">
         <v>225</v>
       </c>
@@ -3439,9 +4481,15 @@
       <c r="A192" s="11">
         <v>191</v>
       </c>
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
+      <c r="B192" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E192" s="13" t="s">
         <v>226</v>
       </c>
@@ -3450,9 +4498,15 @@
       <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="23"/>
+      <c r="B193" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E193" s="13" t="s">
         <v>227</v>
       </c>
@@ -3461,9 +4515,15 @@
       <c r="A194" s="11">
         <v>193</v>
       </c>
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
+      <c r="B194" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E194" s="13" t="s">
         <v>228</v>
       </c>
@@ -3472,9 +4532,15 @@
       <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
+      <c r="B195" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E195" s="13" t="s">
         <v>229</v>
       </c>
@@ -3483,9 +4549,15 @@
       <c r="A196" s="11">
         <v>195</v>
       </c>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
+      <c r="B196" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>155</v>
+      </c>
       <c r="E196" s="13" t="s">
         <v>230</v>
       </c>
@@ -3494,13 +4566,13 @@
       <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="19" t="s">
+      <c r="B197" s="23" t="s">
         <v>239</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="14" t="s">
         <v>240</v>
       </c>
       <c r="E197" s="16" t="s">
@@ -3511,11 +4583,15 @@
       <c r="A198" s="11">
         <v>197</v>
       </c>
-      <c r="B198" s="19"/>
+      <c r="B198" s="23" t="s">
+        <v>239</v>
+      </c>
       <c r="C198" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D198" s="18"/>
+      <c r="D198" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E198" s="16" t="s">
         <v>232</v>
       </c>
@@ -3524,11 +4600,15 @@
       <c r="A199" s="11">
         <v>198</v>
       </c>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19" t="s">
+      <c r="B199" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C199" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D199" s="18"/>
+      <c r="D199" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E199" s="16" t="s">
         <v>233</v>
       </c>
@@ -3537,9 +4617,15 @@
       <c r="A200" s="11">
         <v>199</v>
       </c>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="18"/>
+      <c r="B200" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E200" s="16" t="s">
         <v>234</v>
       </c>
@@ -3548,9 +4634,15 @@
       <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="18"/>
+      <c r="B201" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E201" s="16" t="s">
         <v>235</v>
       </c>
@@ -3559,11 +4651,15 @@
       <c r="A202" s="11">
         <v>201</v>
       </c>
-      <c r="B202" s="19"/>
+      <c r="B202" s="23" t="s">
+        <v>239</v>
+      </c>
       <c r="C202" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D202" s="18"/>
+      <c r="D202" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E202" s="16" t="s">
         <v>236</v>
       </c>
@@ -3572,11 +4668,15 @@
       <c r="A203" s="11">
         <v>202</v>
       </c>
-      <c r="B203" s="19"/>
-      <c r="C203" s="18" t="s">
+      <c r="B203" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C203" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D203" s="18"/>
+      <c r="D203" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E203" s="16" t="s">
         <v>237</v>
       </c>
@@ -3585,9 +4685,15 @@
       <c r="A204" s="11">
         <v>203</v>
       </c>
-      <c r="B204" s="19"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
+      <c r="B204" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E204" s="16" t="s">
         <v>238</v>
       </c>
@@ -3596,11 +4702,15 @@
       <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="19"/>
+      <c r="B205" s="23" t="s">
+        <v>239</v>
+      </c>
       <c r="C205" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D205" s="18"/>
+      <c r="D205" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E205" s="16" t="s">
         <v>253</v>
       </c>
@@ -3609,13 +4719,15 @@
       <c r="A206" s="11">
         <v>205</v>
       </c>
-      <c r="B206" s="19" t="s">
+      <c r="B206" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D206" s="18"/>
+      <c r="D206" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E206" s="16" t="s">
         <v>241</v>
       </c>
@@ -3624,9 +4736,15 @@
       <c r="A207" s="11">
         <v>206</v>
       </c>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="18"/>
+      <c r="B207" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="E207" s="16" t="s">
         <v>242</v>
       </c>
@@ -3635,13 +4753,13 @@
       <c r="A208" s="11">
         <v>207</v>
       </c>
-      <c r="B208" s="19" t="s">
+      <c r="B208" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E208" s="16" t="s">
@@ -3652,9 +4770,13 @@
       <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="19"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18" t="s">
+      <c r="B209" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D209" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E209" s="16" t="s">
@@ -3662,57 +4784,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="D141:D152"/>
-    <mergeCell ref="D153:D161"/>
-    <mergeCell ref="D162:D175"/>
-    <mergeCell ref="C105:C116"/>
-    <mergeCell ref="D105:D116"/>
-    <mergeCell ref="C117:C126"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="C127:C140"/>
-    <mergeCell ref="D127:D140"/>
-    <mergeCell ref="C64:C74"/>
-    <mergeCell ref="D64:D74"/>
-    <mergeCell ref="B2:B47"/>
-    <mergeCell ref="C2:C20"/>
-    <mergeCell ref="D2:D20"/>
-    <mergeCell ref="C21:C34"/>
-    <mergeCell ref="D21:D34"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="B48:B74"/>
-    <mergeCell ref="C35:C46"/>
-    <mergeCell ref="C48:C55"/>
-    <mergeCell ref="D48:D55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="D197:D207"/>
-    <mergeCell ref="C75:C89"/>
-    <mergeCell ref="D75:D89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="C94:C104"/>
-    <mergeCell ref="D94:D104"/>
-    <mergeCell ref="B94:B104"/>
-    <mergeCell ref="B105:B161"/>
-    <mergeCell ref="B162:B185"/>
-    <mergeCell ref="B186:B196"/>
-    <mergeCell ref="B75:B93"/>
-    <mergeCell ref="C141:C152"/>
-    <mergeCell ref="C153:C161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="C176:C185"/>
-    <mergeCell ref="D176:D185"/>
-    <mergeCell ref="C186:C196"/>
-    <mergeCell ref="D186:D196"/>
+  <mergeCells count="1">
     <mergeCell ref="D208:D209"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
